--- a/오피스텔.xlsx
+++ b/오피스텔.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scorpiusj/Documents/stock/gitgit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scorpiusj/Desktop/Continue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F517857-0875-9F45-BDF9-60EC3CD7E4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E522415E-7F79-7945-97FB-68A199D3E023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="1240" windowWidth="27500" windowHeight="14700" xr2:uid="{256BC231-1F22-FE47-BA2E-444669BC9DA0}"/>
   </bookViews>
@@ -532,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD6A5F9A-8F3E-7D49-8CB1-F45A3AEEB7F1}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -560,7 +560,7 @@
       <c r="E1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -578,7 +578,7 @@
         <v>15400</v>
       </c>
       <c r="F2" s="1">
-        <v>17000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -598,7 +598,7 @@
       </c>
       <c r="F3" s="1">
         <f>F2*0.55</f>
-        <v>9350</v>
+        <v>7700.0000000000009</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -618,7 +618,7 @@
       </c>
       <c r="F4" s="1">
         <f>F3-2000</f>
-        <v>7350</v>
+        <v>5700.0000000000009</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -653,7 +653,7 @@
       </c>
       <c r="F6" s="4">
         <f t="shared" si="0"/>
-        <v>9150</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -681,7 +681,7 @@
       </c>
       <c r="F8" s="1">
         <f>F2*0.046/10</f>
-        <v>78.2</v>
+        <v>64.400000000000006</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -696,12 +696,12 @@
         <v>521.5</v>
       </c>
       <c r="E9" s="1">
-        <f>E4*0.035</f>
-        <v>275.31</v>
+        <f>E4*0.05</f>
+        <v>393.3</v>
       </c>
       <c r="F9" s="1">
-        <f>F4*0.03</f>
-        <v>220.5</v>
+        <f>F4*0.05</f>
+        <v>285.00000000000006</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -737,11 +737,11 @@
       </c>
       <c r="E11" s="1">
         <f>E10-E8-E9</f>
-        <v>494.06400000000002</v>
+        <v>376.07400000000001</v>
       </c>
       <c r="F11" s="1">
         <f>F10-F8-F9</f>
-        <v>421.29999999999995</v>
+        <v>370.59999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -754,12 +754,84 @@
       </c>
       <c r="E12" s="2">
         <f>E11/E6</f>
-        <v>7.561432506887053E-2</v>
+        <v>5.7556473829201101E-2</v>
       </c>
       <c r="F12" s="2">
         <f>F11/F6</f>
-        <v>4.6043715846994529E-2</v>
-      </c>
+        <v>4.7512820512820506E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="3:6">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="3:6">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="3:6">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
